--- a/lab/Lab1/p0/Algoritmo1Tiempos.xlsx
+++ b/lab/Lab1/p0/Algoritmo1Tiempos.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="200" documentId="11_AD4DB114E441178AC67DF41E0E97FE22683EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72179E8F-F4DD-468C-B3E2-1AF76DBCA8E0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="7020" windowWidth="21820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D942D2BC-4BED-4BDE-B7BD-85168EA30CBE}">
   <dimension ref="D4:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -920,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AF6A35-6EF4-4B41-8D64-91AC41A58EDC}">
   <dimension ref="C4:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
